--- a/assignments/3-dynamics-interactivity-narrative/data/raw and working files/potential.xlsx
+++ b/assignments/3-dynamics-interactivity-narrative/data/raw and working files/potential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlevinson/programs/parsons/major-studio-1/assignments/3-dynamics-interactivity-narrative/data/raw and working files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2D16BC-A9F9-FD41-BB85-5FB867D95020}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11F517-694F-EB46-BCE9-BE1D13D90289}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16680" activeTab="1" xr2:uid="{3334A7A3-04DA-1C40-9F45-6CD4B9FCB417}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16680" activeTab="2" xr2:uid="{3334A7A3-04DA-1C40-9F45-6CD4B9FCB417}"/>
   </bookViews>
   <sheets>
     <sheet name="raw potential" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="125">
   <si>
     <t>Algeria DZA NA 2 316 559 26 530 27 904 30 155 2.535,9 153,4</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>Eswatini</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -473,14 +476,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="176" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1317,7 +1320,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F209B4AC-C05E-204F-9D00-624A20534ED5}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F209B4AC-C05E-204F-9D00-624A20534ED5}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
@@ -2190,7 +2193,7 @@
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2461,10 +2464,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73F486C-9768-0F40-BDE6-EE3E382C8E71}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2499,827 +2505,827 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2">
-        <v>2316559</v>
+        <v>633217</v>
       </c>
       <c r="C2" s="2">
-        <v>26530</v>
+        <v>13156</v>
       </c>
       <c r="D2" s="2">
-        <v>27904</v>
+        <v>25687</v>
       </c>
       <c r="E2" s="2">
-        <v>30155</v>
+        <v>43539</v>
       </c>
       <c r="F2" s="3">
         <f>SUM(C2:E2)</f>
-        <v>84589</v>
+        <v>82382</v>
       </c>
       <c r="G2">
         <f>F2/B2</f>
-        <v>3.6514934435082379E-2</v>
+        <v>0.13010073955689755</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2">
-        <v>1247357</v>
+        <v>21679</v>
       </c>
       <c r="C3" s="2">
-        <v>9786</v>
+        <v>852</v>
       </c>
       <c r="D3" s="2">
-        <v>13319</v>
+        <v>947</v>
       </c>
       <c r="E3" s="2">
-        <v>202</v>
+        <v>934</v>
       </c>
       <c r="F3" s="3">
         <f>SUM(C3:E3)</f>
-        <v>23307</v>
+        <v>2733</v>
       </c>
       <c r="G3">
         <f>F3/B3</f>
-        <v>1.8685107791915227E-2</v>
+        <v>0.12606670049356519</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="3">
-        <v>115543</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="B4" s="2">
+        <v>582253</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15399</v>
       </c>
       <c r="D4" s="2">
-        <v>3898</v>
+        <v>23046</v>
       </c>
       <c r="E4" s="2">
-        <v>405</v>
+        <v>22476</v>
       </c>
       <c r="F4" s="3">
         <f>SUM(C4:E4)</f>
-        <v>4303</v>
+        <v>60921</v>
       </c>
       <c r="G4">
         <f>F4/B4</f>
-        <v>3.7241546437257127E-2</v>
+        <v>0.10462977434208154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>54</v>
+      <c r="A5" t="s">
+        <v>96</v>
       </c>
       <c r="B5" s="2">
-        <v>578084</v>
+        <v>1220394</v>
       </c>
       <c r="C5" s="2">
-        <v>13070</v>
+        <v>43275</v>
       </c>
       <c r="D5" s="2">
-        <v>13764</v>
+        <v>42243</v>
       </c>
       <c r="E5" s="2">
-        <v>9793</v>
+        <v>41195</v>
       </c>
       <c r="F5" s="3">
         <f>SUM(C5:E5)</f>
-        <v>36627</v>
+        <v>126713</v>
       </c>
       <c r="G5">
         <f>F5/B5</f>
-        <v>6.3359304184167006E-2</v>
+        <v>0.10382958290519291</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>92</v>
+      <c r="A6" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B6" s="2">
-        <v>273367</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
+        <v>406318</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15127</v>
       </c>
       <c r="D6" s="2">
-        <v>7742</v>
+        <v>15155</v>
       </c>
       <c r="E6" s="2">
-        <v>4154</v>
+        <v>11297</v>
       </c>
       <c r="F6" s="3">
         <f>SUM(C6:E6)</f>
-        <v>11896</v>
+        <v>41579</v>
       </c>
       <c r="G6">
         <f>F6/B6</f>
-        <v>4.3516591249126629E-2</v>
+        <v>0.10233117902726437</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2">
-        <v>26949</v>
+        <v>390649</v>
       </c>
       <c r="C7" s="2">
-        <v>786</v>
+        <v>11874</v>
       </c>
       <c r="D7" s="2">
-        <v>888</v>
+        <v>15684</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>12137</v>
       </c>
       <c r="F7" s="3">
         <f>SUM(C7:E7)</f>
-        <v>1674</v>
+        <v>39695</v>
       </c>
       <c r="G7">
         <f>F7/B7</f>
-        <v>6.211733273961928E-2</v>
+        <v>0.10161295689992807</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2">
-        <v>466295</v>
+        <v>122098</v>
       </c>
       <c r="C8" s="2">
-        <v>3706</v>
+        <v>4349</v>
       </c>
       <c r="D8" s="2">
-        <v>10105</v>
+        <v>4775</v>
       </c>
       <c r="E8" s="2">
-        <v>979</v>
+        <v>3154</v>
       </c>
       <c r="F8" s="3">
         <f>SUM(C8:E8)</f>
-        <v>14790</v>
+        <v>12278</v>
       </c>
       <c r="G8">
         <f>F8/B8</f>
-        <v>3.1718118358549846E-2</v>
+        <v>0.10055856770790676</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>93</v>
+      <c r="A9" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B9" s="2">
-        <v>620200</v>
+        <v>118062</v>
       </c>
       <c r="C9" s="2">
-        <v>3471</v>
+        <v>4474</v>
       </c>
       <c r="D9" s="2">
-        <v>5284</v>
+        <v>5210</v>
       </c>
       <c r="E9" s="2">
-        <v>79</v>
+        <v>1986</v>
       </c>
       <c r="F9" s="3">
         <f>SUM(C9:E9)</f>
-        <v>8834</v>
+        <v>11670</v>
       </c>
       <c r="G9">
         <f>F9/B9</f>
-        <v>1.4243792325056433E-2</v>
+        <v>9.884636885704122E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
+      <c r="A10" t="s">
+        <v>119</v>
       </c>
       <c r="B10" s="2">
-        <v>1269961</v>
+        <v>982446</v>
       </c>
       <c r="C10" s="2">
-        <v>10284</v>
+        <v>26605</v>
       </c>
       <c r="D10" s="2">
-        <v>10506</v>
+        <v>32218</v>
       </c>
       <c r="E10" s="2">
-        <v>9165</v>
+        <v>36601</v>
       </c>
       <c r="F10" s="3">
         <f>SUM(C10:E10)</f>
-        <v>29955</v>
+        <v>95424</v>
       </c>
       <c r="G10">
         <f>F10/B10</f>
-        <v>2.358733850882035E-2</v>
+        <v>9.7129002510061624E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>121</v>
+      <c r="A11" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B11" s="2">
-        <v>341574</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
+        <v>941758</v>
+      </c>
+      <c r="C11" s="2">
+        <v>31482</v>
       </c>
       <c r="D11" s="2">
-        <v>6778</v>
+        <v>38804</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>18456</v>
       </c>
       <c r="F11" s="3">
         <f>SUM(C11:E11)</f>
-        <v>6780</v>
+        <v>88742</v>
       </c>
       <c r="G11">
         <f>F11/B11</f>
-        <v>1.9849285952677896E-2</v>
+        <v>9.423015254449657E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2">
-        <v>2327986</v>
+        <v>17289</v>
       </c>
       <c r="C12" s="2">
-        <v>12439</v>
+        <v>559</v>
       </c>
       <c r="D12" s="2">
-        <v>22862</v>
+        <v>572</v>
       </c>
       <c r="E12" s="2">
-        <v>2173</v>
+        <v>476</v>
       </c>
       <c r="F12" s="3">
         <f>SUM(C12:E12)</f>
-        <v>37474</v>
+        <v>1607</v>
       </c>
       <c r="G12">
         <f>F12/B12</f>
-        <v>1.6097175842122762E-2</v>
+        <v>9.2949274104922208E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>120</v>
+      <c r="A13" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B13" s="2">
-        <v>321882</v>
+        <v>619745</v>
       </c>
       <c r="C13" s="2">
-        <v>221</v>
+        <v>19163.423587172754</v>
       </c>
       <c r="D13" s="2">
-        <v>10325</v>
+        <v>21736.384608441396</v>
       </c>
       <c r="E13" s="2">
-        <v>430</v>
+        <v>15262.275087296366</v>
       </c>
       <c r="F13" s="3">
         <f>SUM(C13:E13)</f>
-        <v>10976</v>
+        <v>56162.08328291052</v>
       </c>
       <c r="G13">
         <f>F13/B13</f>
-        <v>3.4099452594429015E-2</v>
+        <v>9.0621276949246099E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2">
-        <v>21679</v>
+        <v>1886068</v>
       </c>
       <c r="C14" s="2">
-        <v>852</v>
+        <v>58319.986443152819</v>
       </c>
       <c r="D14" s="2">
-        <v>947</v>
+        <v>66150.270588183601</v>
       </c>
       <c r="E14" s="2">
-        <v>934</v>
+        <v>46447.633541774252</v>
       </c>
       <c r="F14" s="3">
         <f>SUM(C14:E14)</f>
-        <v>2733</v>
+        <v>170917.89057311066</v>
       </c>
       <c r="G14">
         <f>F14/B14</f>
-        <v>0.12606670049356519</v>
+        <v>9.0621276949246085E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2">
-        <v>982446</v>
+        <v>10797</v>
       </c>
       <c r="C15" s="2">
-        <v>26605</v>
+        <v>316</v>
       </c>
       <c r="D15" s="2">
-        <v>32218</v>
+        <v>474</v>
       </c>
       <c r="E15" s="2">
-        <v>36601</v>
+        <v>173</v>
       </c>
       <c r="F15" s="3">
         <f>SUM(C15:E15)</f>
-        <v>95424</v>
+        <v>963</v>
       </c>
       <c r="G15">
         <f>F15/B15</f>
-        <v>9.7129002510061624E-2</v>
+        <v>8.9191442067240903E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>94</v>
+      <c r="A16" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="2">
-        <v>26987</v>
+        <v>30454</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="D16" s="2">
-        <v>706</v>
+        <v>938</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="F16" s="3">
         <f>SUM(C16:E16)</f>
-        <v>706</v>
+        <v>2659</v>
       </c>
       <c r="G16">
         <f>F16/B16</f>
-        <v>2.6160744061955756E-2</v>
+        <v>8.7312011558415975E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2">
-        <v>122098</v>
+        <v>155176</v>
       </c>
       <c r="C17" s="2">
-        <v>4349</v>
+        <v>2045</v>
       </c>
       <c r="D17" s="2">
-        <v>4775</v>
+        <v>4645</v>
       </c>
       <c r="E17" s="2">
-        <v>3154</v>
+        <v>6842</v>
       </c>
       <c r="F17" s="3">
         <f>SUM(C17:E17)</f>
-        <v>12278</v>
+        <v>13532</v>
       </c>
       <c r="G17">
         <f>F17/B17</f>
-        <v>0.10055856770790676</v>
+        <v>8.7204206836108675E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2">
-        <v>1127582</v>
+        <v>824205</v>
       </c>
       <c r="C18" s="2">
-        <v>22959</v>
+        <v>29716</v>
       </c>
       <c r="D18" s="2">
-        <v>27154</v>
+        <v>26183</v>
       </c>
       <c r="E18" s="2">
-        <v>14838</v>
+        <v>15196</v>
       </c>
       <c r="F18" s="3">
         <f>SUM(C18:E18)</f>
-        <v>64951</v>
+        <v>71095</v>
       </c>
       <c r="G18">
         <f>F18/B18</f>
-        <v>5.7602019187961498E-2</v>
+        <v>8.6258879768989508E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B19" s="2">
-        <v>264715</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6</v>
+        <v>241278</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8582</v>
       </c>
       <c r="D19" s="2">
-        <v>5402</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
+        <v>9470</v>
+      </c>
+      <c r="E19" s="2">
+        <v>815</v>
       </c>
       <c r="F19" s="3">
         <f>SUM(C19:E19)</f>
-        <v>5408</v>
+        <v>18867</v>
       </c>
       <c r="G19">
         <f>F19/B19</f>
-        <v>2.0429518538805886E-2</v>
+        <v>7.8196105736950738E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>118</v>
+      <c r="A20" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="2">
-        <v>10797</v>
+        <v>33974</v>
       </c>
       <c r="C20" s="2">
-        <v>316</v>
+        <v>906</v>
       </c>
       <c r="D20" s="2">
-        <v>474</v>
+        <v>1493</v>
       </c>
       <c r="E20" s="2">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="F20" s="3">
         <f>SUM(C20:E20)</f>
-        <v>963</v>
+        <v>2523</v>
       </c>
       <c r="G20">
         <f>F20/B20</f>
-        <v>8.9191442067240903E-2</v>
+        <v>7.4262671454641785E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2">
-        <v>238761</v>
+        <v>196761</v>
       </c>
       <c r="C21" s="2">
-        <v>229</v>
+        <v>1537</v>
       </c>
       <c r="D21" s="2">
-        <v>7644</v>
-      </c>
-      <c r="E21" s="2">
-        <v>606</v>
+        <v>7519</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5454</v>
       </c>
       <c r="F21" s="3">
         <f>SUM(C21:E21)</f>
-        <v>8479</v>
+        <v>14510</v>
       </c>
       <c r="G21">
         <f>F21/B21</f>
-        <v>3.5512499947646388E-2</v>
+        <v>7.3744288756410065E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2">
-        <v>244871</v>
+        <v>25206</v>
       </c>
       <c r="C22" s="2">
-        <v>467</v>
+        <v>789</v>
       </c>
       <c r="D22" s="2">
-        <v>5204</v>
+        <v>892</v>
       </c>
       <c r="E22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <f>SUM(C22:E22)</f>
-        <v>5673</v>
+        <v>1681</v>
       </c>
       <c r="G22">
         <f>F22/B22</f>
-        <v>2.3167300333645061E-2</v>
+        <v>6.6690470522891371E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2">
-        <v>33974</v>
+        <v>578084</v>
       </c>
       <c r="C23" s="2">
-        <v>906</v>
+        <v>13070</v>
       </c>
       <c r="D23" s="2">
-        <v>1493</v>
+        <v>13764</v>
       </c>
       <c r="E23" s="2">
-        <v>124</v>
+        <v>9793</v>
       </c>
       <c r="F23" s="3">
         <f>SUM(C23:E23)</f>
-        <v>2523</v>
+        <v>36627</v>
       </c>
       <c r="G23">
         <f>F23/B23</f>
-        <v>7.4262671454641785E-2</v>
+        <v>6.3359304184167006E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2">
-        <v>582253</v>
+        <v>786096</v>
       </c>
       <c r="C24" s="2">
-        <v>15399</v>
+        <v>16851</v>
       </c>
       <c r="D24" s="2">
-        <v>23046</v>
+        <v>22024</v>
       </c>
       <c r="E24" s="2">
-        <v>22476</v>
+        <v>10805</v>
       </c>
       <c r="F24" s="3">
         <f>SUM(C24:E24)</f>
-        <v>60921</v>
+        <v>49680</v>
       </c>
       <c r="G24">
         <f>F24/B24</f>
-        <v>0.10462977434208154</v>
+        <v>6.31983879831471E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2">
-        <v>30454</v>
+        <v>751315</v>
       </c>
       <c r="C25" s="2">
-        <v>1122</v>
+        <v>15691</v>
       </c>
       <c r="D25" s="2">
-        <v>938</v>
+        <v>17894</v>
       </c>
       <c r="E25" s="2">
-        <v>599</v>
+        <v>13229</v>
       </c>
       <c r="F25" s="3">
         <f>SUM(C25:E25)</f>
-        <v>2659</v>
+        <v>46814</v>
       </c>
       <c r="G25">
         <f>F25/B25</f>
-        <v>8.7312011558415975E-2</v>
+        <v>6.2309417488004365E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2">
-        <v>95877</v>
+        <v>26949</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="D26" s="2">
-        <v>667</v>
+        <v>888</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="3">
         <f>SUM(C26:E26)</f>
-        <v>667</v>
+        <v>1674</v>
       </c>
       <c r="G26">
         <f>F26/B26</f>
-        <v>6.9568301052390039E-3</v>
+        <v>6.211733273961928E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2">
-        <v>1616869</v>
+        <v>909481</v>
       </c>
       <c r="C27" s="2">
-        <v>11823</v>
+        <v>10045</v>
       </c>
       <c r="D27" s="2">
-        <v>13979</v>
+        <v>32456</v>
       </c>
       <c r="E27" s="2">
-        <v>21649</v>
+        <v>12867</v>
       </c>
       <c r="F27" s="3">
         <f>SUM(C27:E27)</f>
-        <v>47451</v>
+        <v>55368</v>
       </c>
       <c r="G27">
         <f>F27/B27</f>
-        <v>2.9347461049720171E-2</v>
+        <v>6.0878676959716584E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2">
-        <v>591575</v>
+        <v>1127582</v>
       </c>
       <c r="C28" s="2">
-        <v>3194</v>
+        <v>22959</v>
       </c>
       <c r="D28" s="2">
-        <v>4987</v>
+        <v>27154</v>
       </c>
       <c r="E28" s="2">
-        <v>2617</v>
+        <v>14838</v>
       </c>
       <c r="F28" s="3">
         <f>SUM(C28:E28)</f>
-        <v>10798</v>
+        <v>64951</v>
       </c>
       <c r="G28">
         <f>F28/B28</f>
-        <v>1.8252968769809409E-2</v>
+        <v>5.7602019187961498E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>73</v>
+      <c r="A29" t="s">
+        <v>117</v>
       </c>
       <c r="B29" s="2">
-        <v>118062</v>
+        <v>9834000</v>
       </c>
       <c r="C29" s="2">
-        <v>4474</v>
+        <v>116100</v>
       </c>
       <c r="D29" s="2">
-        <v>5210</v>
+        <v>283710</v>
       </c>
       <c r="E29" s="2">
-        <v>1986</v>
+        <v>49760</v>
       </c>
       <c r="F29" s="3">
         <f>SUM(C29:E29)</f>
-        <v>11670</v>
+        <v>449570</v>
       </c>
       <c r="G29">
         <f>F29/B29</f>
-        <v>9.884636885704122E-2</v>
+        <v>4.5715883668903806E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>74</v>
+      <c r="A30" t="s">
+        <v>92</v>
       </c>
       <c r="B30" s="2">
-        <v>1251574</v>
+        <v>273367</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>7906</v>
+        <v>7742</v>
       </c>
       <c r="E30" s="2">
-        <v>1923</v>
+        <v>4154</v>
       </c>
       <c r="F30" s="3">
         <f>SUM(C30:E30)</f>
-        <v>9829</v>
+        <v>11896</v>
       </c>
       <c r="G30">
         <f>F30/B30</f>
-        <v>7.8533111106494705E-3</v>
+        <v>4.3516591249126629E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1040738</v>
-      </c>
-      <c r="C31" s="2">
-        <v>4988</v>
+        <v>53</v>
+      </c>
+      <c r="B31" s="3">
+        <v>115543</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>7990</v>
+        <v>3898</v>
       </c>
       <c r="E31" s="2">
-        <v>11822</v>
+        <v>405</v>
       </c>
       <c r="F31" s="3">
         <f>SUM(C31:E31)</f>
-        <v>24800</v>
+        <v>4303</v>
       </c>
       <c r="G31">
         <f>F31/B31</f>
-        <v>2.3829244247831827E-2</v>
+        <v>3.7241546437257127E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2">
-        <v>406318</v>
+        <v>2316559</v>
       </c>
       <c r="C32" s="2">
-        <v>15127</v>
+        <v>26530</v>
       </c>
       <c r="D32" s="2">
-        <v>15155</v>
+        <v>27904</v>
       </c>
       <c r="E32" s="2">
-        <v>11297</v>
+        <v>30155</v>
       </c>
       <c r="F32" s="3">
         <f>SUM(C32:E32)</f>
-        <v>41579</v>
+        <v>84589</v>
       </c>
       <c r="G32">
         <f>F32/B32</f>
-        <v>0.10233117902726437</v>
+        <v>3.6514934435082379E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2">
-        <v>786096</v>
+        <v>238761</v>
       </c>
       <c r="C33" s="2">
-        <v>16851</v>
+        <v>229</v>
       </c>
       <c r="D33" s="2">
-        <v>22024</v>
+        <v>7644</v>
       </c>
       <c r="E33" s="2">
-        <v>10805</v>
+        <v>606</v>
       </c>
       <c r="F33" s="3">
         <f>SUM(C33:E33)</f>
-        <v>49680</v>
+        <v>8479</v>
       </c>
       <c r="G33">
         <f>F33/B33</f>
-        <v>6.31983879831471E-2</v>
+        <v>3.5512499947646388E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>78</v>
+      <c r="A34" t="s">
+        <v>120</v>
       </c>
       <c r="B34" s="2">
-        <v>824205</v>
+        <v>321882</v>
       </c>
       <c r="C34" s="2">
-        <v>29716</v>
+        <v>221</v>
       </c>
       <c r="D34" s="2">
-        <v>26183</v>
+        <v>10325</v>
       </c>
       <c r="E34" s="2">
-        <v>15196</v>
+        <v>430</v>
       </c>
       <c r="F34" s="3">
         <f>SUM(C34:E34)</f>
-        <v>71095</v>
+        <v>10976</v>
       </c>
       <c r="G34">
         <f>F34/B34</f>
-        <v>8.6258879768989508E-2</v>
+        <v>3.4099452594429015E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3349,389 +3355,414 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2">
-        <v>909481</v>
+        <v>466295</v>
       </c>
       <c r="C36" s="2">
-        <v>10045</v>
+        <v>3706</v>
       </c>
       <c r="D36" s="2">
-        <v>32456</v>
+        <v>10105</v>
       </c>
       <c r="E36" s="2">
-        <v>12867</v>
+        <v>979</v>
       </c>
       <c r="F36" s="3">
         <f>SUM(C36:E36)</f>
-        <v>55368</v>
+        <v>14790</v>
       </c>
       <c r="G36">
         <f>F36/B36</f>
-        <v>6.0878676959716584E-2</v>
+        <v>3.1718118358549846E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2">
-        <v>25206</v>
+        <v>1616869</v>
       </c>
       <c r="C37" s="2">
-        <v>789</v>
+        <v>11823</v>
       </c>
       <c r="D37" s="2">
-        <v>892</v>
+        <v>13979</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
+        <v>21649</v>
       </c>
       <c r="F37" s="3">
         <f>SUM(C37:E37)</f>
-        <v>1681</v>
+        <v>47451</v>
       </c>
       <c r="G37">
         <f>F37/B37</f>
-        <v>6.6690470522891371E-2</v>
+        <v>2.9347461049720171E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>82</v>
+      <c r="A38" t="s">
+        <v>94</v>
       </c>
       <c r="B38" s="2">
-        <v>196761</v>
+        <v>26987</v>
       </c>
       <c r="C38" s="2">
-        <v>1537</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
-        <v>7519</v>
-      </c>
-      <c r="E38" s="3">
-        <v>5454</v>
+        <v>706</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
       </c>
       <c r="F38" s="3">
         <f>SUM(C38:E38)</f>
-        <v>14510</v>
+        <v>706</v>
       </c>
       <c r="G38">
         <f>F38/B38</f>
-        <v>7.3744288756410065E-2</v>
+        <v>2.6160744061955756E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>95</v>
+      <c r="A39" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B39" s="2">
-        <v>72322</v>
+        <v>1040738</v>
       </c>
       <c r="C39" s="2">
-        <v>197</v>
+        <v>4988</v>
       </c>
       <c r="D39" s="2">
-        <v>1499</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
+        <v>7990</v>
+      </c>
+      <c r="E39" s="2">
+        <v>11822</v>
       </c>
       <c r="F39" s="3">
         <f>SUM(C39:E39)</f>
-        <v>1696</v>
+        <v>24800</v>
       </c>
       <c r="G39">
         <f>F39/B39</f>
-        <v>2.3450678908216033E-2</v>
+        <v>2.3829244247831827E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
-        <v>633217</v>
+        <v>1269961</v>
       </c>
       <c r="C40" s="2">
-        <v>13156</v>
+        <v>10284</v>
       </c>
       <c r="D40" s="2">
-        <v>25687</v>
+        <v>10506</v>
       </c>
       <c r="E40" s="2">
-        <v>43539</v>
+        <v>9165</v>
       </c>
       <c r="F40" s="3">
         <f>SUM(C40:E40)</f>
-        <v>82382</v>
+        <v>29955</v>
       </c>
       <c r="G40">
         <f>F40/B40</f>
-        <v>0.13010073955689755</v>
+        <v>2.358733850882035E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2">
-        <v>1220394</v>
+        <v>72322</v>
       </c>
       <c r="C41" s="2">
-        <v>43275</v>
+        <v>197</v>
       </c>
       <c r="D41" s="2">
-        <v>42243</v>
-      </c>
-      <c r="E41" s="2">
-        <v>41195</v>
+        <v>1499</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <f>SUM(C41:E41)</f>
-        <v>126713</v>
+        <v>1696</v>
       </c>
       <c r="G41">
         <f>F41/B41</f>
-        <v>0.10382958290519291</v>
+        <v>2.3450678908216033E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2">
-        <v>2503827</v>
-      </c>
-      <c r="C42" s="2">
-        <v>77422</v>
+        <v>57038</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>87817</v>
+        <v>1257</v>
       </c>
       <c r="E42" s="2">
-        <v>61661</v>
+        <v>79</v>
       </c>
       <c r="F42" s="3">
         <f>SUM(C42:E42)</f>
-        <v>226900</v>
+        <v>1336</v>
       </c>
       <c r="G42">
         <f>F42/B42</f>
-        <v>9.0621276949246099E-2</v>
+        <v>2.3422981170447773E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>123</v>
+      <c r="A43" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B43" s="2">
-        <v>17289</v>
+        <v>244871</v>
       </c>
       <c r="C43" s="2">
-        <v>559</v>
+        <v>467</v>
       </c>
       <c r="D43" s="2">
-        <v>572</v>
+        <v>5204</v>
       </c>
       <c r="E43" s="2">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3">
         <f>SUM(C43:E43)</f>
-        <v>1607</v>
+        <v>5673</v>
       </c>
       <c r="G43">
         <f>F43/B43</f>
-        <v>9.2949274104922208E-2</v>
+        <v>2.3167300333645061E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2">
-        <v>941758</v>
-      </c>
-      <c r="C44" s="2">
-        <v>31482</v>
+        <v>264715</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6</v>
       </c>
       <c r="D44" s="2">
-        <v>38804</v>
-      </c>
-      <c r="E44" s="2">
-        <v>18456</v>
+        <v>5402</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <f>SUM(C44:E44)</f>
-        <v>88742</v>
+        <v>5408</v>
       </c>
       <c r="G44">
         <f>F44/B44</f>
-        <v>9.423015254449657E-2</v>
+        <v>2.0429518538805886E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>87</v>
+      <c r="A45" t="s">
+        <v>121</v>
       </c>
       <c r="B45" s="2">
-        <v>57038</v>
+        <v>341574</v>
       </c>
       <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>6778</v>
+      </c>
+      <c r="E45" s="2">
         <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1257</v>
-      </c>
-      <c r="E45" s="2">
-        <v>79</v>
       </c>
       <c r="F45" s="3">
         <f>SUM(C45:E45)</f>
-        <v>1336</v>
+        <v>6780</v>
       </c>
       <c r="G45">
         <f>F45/B45</f>
-        <v>2.3422981170447773E-2</v>
+        <v>1.9849285952677896E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
-        <v>155176</v>
+        <v>1247357</v>
       </c>
       <c r="C46" s="2">
-        <v>2045</v>
+        <v>9786</v>
       </c>
       <c r="D46" s="2">
-        <v>4645</v>
+        <v>13319</v>
       </c>
       <c r="E46" s="2">
-        <v>6842</v>
+        <v>202</v>
       </c>
       <c r="F46" s="3">
         <f>SUM(C46:E46)</f>
-        <v>13532</v>
+        <v>23307</v>
       </c>
       <c r="G46">
         <f>F46/B46</f>
-        <v>8.7204206836108675E-2</v>
+        <v>1.8685107791915227E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2">
-        <v>241278</v>
+        <v>591575</v>
       </c>
       <c r="C47" s="2">
-        <v>8582</v>
+        <v>3194</v>
       </c>
       <c r="D47" s="2">
-        <v>9470</v>
+        <v>4987</v>
       </c>
       <c r="E47" s="2">
-        <v>815</v>
+        <v>2617</v>
       </c>
       <c r="F47" s="3">
         <f>SUM(C47:E47)</f>
-        <v>18867</v>
+        <v>10798</v>
       </c>
       <c r="G47">
         <f>F47/B47</f>
-        <v>7.8196105736950738E-2</v>
+        <v>1.8252968769809409E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B48" s="2">
-        <v>9834000</v>
+        <v>2327986</v>
       </c>
       <c r="C48" s="2">
-        <v>116100</v>
+        <v>12439</v>
       </c>
       <c r="D48" s="2">
-        <v>283710</v>
+        <v>22862</v>
       </c>
       <c r="E48" s="2">
-        <v>49760</v>
+        <v>2173</v>
       </c>
       <c r="F48" s="3">
         <f>SUM(C48:E48)</f>
-        <v>449570</v>
+        <v>37474</v>
       </c>
       <c r="G48">
         <f>F48/B48</f>
-        <v>4.5715883668903806E-2</v>
+        <v>1.6097175842122762E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>90</v>
+      <c r="A49" t="s">
+        <v>93</v>
       </c>
       <c r="B49" s="2">
-        <v>751315</v>
+        <v>620200</v>
       </c>
       <c r="C49" s="2">
-        <v>15691</v>
+        <v>3471</v>
       </c>
       <c r="D49" s="2">
-        <v>17894</v>
+        <v>5284</v>
       </c>
       <c r="E49" s="2">
-        <v>13229</v>
+        <v>79</v>
       </c>
       <c r="F49" s="3">
         <f>SUM(C49:E49)</f>
-        <v>46814</v>
+        <v>8834</v>
       </c>
       <c r="G49">
         <f>F49/B49</f>
-        <v>6.2309417488004365E-2</v>
+        <v>1.4243792325056433E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2">
-        <v>390649</v>
-      </c>
-      <c r="C50" s="2">
-        <v>11874</v>
+        <v>1251574</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
       </c>
       <c r="D50" s="2">
-        <v>15684</v>
+        <v>7906</v>
       </c>
       <c r="E50" s="2">
-        <v>12137</v>
+        <v>1923</v>
       </c>
       <c r="F50" s="3">
         <f>SUM(C50:E50)</f>
-        <v>39695</v>
+        <v>9829</v>
       </c>
       <c r="G50">
         <f>F50/B50</f>
-        <v>0.10161295689992807</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="D52" s="4"/>
-    </row>
-    <row r="54" spans="1:7" ht="41" x14ac:dyDescent="0.45">
-      <c r="B54" s="5"/>
+        <v>7.8533111106494705E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2">
+        <v>95877</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>667</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <f>SUM(C51:E51)</f>
+        <v>667</v>
+      </c>
+      <c r="G51">
+        <f>F51/B51</f>
+        <v>6.9568301052390039E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="41" x14ac:dyDescent="0.45">
+      <c r="B55" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{CB69E0D3-01E8-714C-9C3A-61AA6D178B4B}">
-    <sortState ref="A2:G50">
-      <sortCondition ref="A1:A50"/>
+    <sortState ref="A2:G51">
+      <sortCondition descending="1" ref="G1:G51"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3745,7 +3776,7 @@
   </sheetPr>
   <dimension ref="A3:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
